--- a/venv/testcode/testfiles/文本.xlsx
+++ b/venv/testcode/testfiles/文本.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B2F2532D-9CC3-4563-BF53-ECC7C8C69EC9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4F27929D-FCFF-40B8-A814-1C9A752D9844}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BlueSkey" sheetId="1" r:id="rId1"/>
+    <sheet name="data-txt" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="44">
   <si>
     <t>i miss my blue blue sky</t>
   </si>
@@ -46,6 +47,146 @@
   </si>
   <si>
     <t>,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>300</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>184</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>144</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>108</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>72</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>720</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>行进长度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否右转</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转向绝对角度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>color-r</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>color-g</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>color-b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>300,0,144,1,0,0
+300,0,144,0,1,0
+300,0,144,0,0,1
+300,0,144,1,1,0
+300,0,108,0,1,1
+184,0,72,1,0,1
+184,0,72,0,0,0
+184,0,72,0,0,0
+184,0,72,0,0,0
+184,1,72,1,0,1
+184,1,72,0,0,0
+184,1,72,0,0,0
+184,1,72,0,0,0
+184,1,72,0,0,0
+184,1,720,0,0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理后数据文本：</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -53,7 +194,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,6 +210,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -95,10 +245,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -381,7 +535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -499,4 +653,628 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66CCF9E2-41B0-463B-B6BB-E310D5CA10E2}">
+  <dimension ref="A1:N22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="13" width="9" style="1"/>
+    <col min="14" max="14" width="47.375" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N21" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="14:14" ht="213.75" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/venv/testcode/testfiles/文本.xlsx
+++ b/venv/testcode/testfiles/文本.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4F27929D-FCFF-40B8-A814-1C9A752D9844}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A4AA917A-0D83-4696-ADD5-7FCD83F3DC64}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BlueSkey" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="49">
   <si>
     <t>i miss my blue blue sky</t>
   </si>
@@ -187,6 +187,29 @@
   </si>
   <si>
     <t>处理后数据文本：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>200,0,90,1,0,0
+200,0,90,0,1,0
+200,0,90,0,0,1
+200,0,90,1,1,0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -657,10 +680,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66CCF9E2-41B0-463B-B6BB-E310D5CA10E2}">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1262,14 +1285,196 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N21" s="4" t="s">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N18" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="14:14" ht="213.75" x14ac:dyDescent="0.2">
-      <c r="N22" s="3" t="s">
+    <row r="19" spans="1:14" ht="213.75" x14ac:dyDescent="0.2">
+      <c r="N19" s="3" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/venv/testcode/testfiles/文本.xlsx
+++ b/venv/testcode/testfiles/文本.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A4AA917A-0D83-4696-ADD5-7FCD83F3DC64}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{68288489-6AFA-4D22-9357-1A8785E0B05A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BlueSkey" sheetId="1" r:id="rId1"/>
     <sheet name="data-txt" sheetId="2" r:id="rId2"/>
+    <sheet name="pip -h" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="51">
   <si>
     <t>i miss my blue blue sky</t>
   </si>
@@ -212,12 +213,101 @@
 200,0,90,1,1,0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Windows PowerShell
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版权所有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (C) Microsoft Corporation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">。保留所有权利。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>PS C:\WINDOWS\system32&gt; pip -h
+Usage:
+  pip &lt;command&gt; [options]
+Commands:
+  install                     Install packages.
+  download                    Download packages.
+  uninstall                   Uninstall packages.
+  freeze                      Output installed packages in requirements format.
+  list                        List installed packages.
+  show                        Show information about installed packages.
+  check                       Verify installed packages have compatible dependencies.
+  config                      Manage local and global configuration.
+  search                      Search PyPI for packages.
+  wheel                       Build wheels from your requirements.
+  hash                        Compute hashes of package archives.
+  completion                  A helper command used for command completion.
+  help                        Show help for commands.
+General Options:
+  -h, --help                  Show help.
+  --isolated                  Run pip in an isolated mode, ignoring environment variables and user configuration.
+  -v, --verbose               Give more output. Option is additive, and can be used up to 3 times.
+  -V, --version               Show version and exit.
+  -q, --quiet                 Give less output. Option is additive, and can be used up to 3 times (corresponding to
+                              WARNING, ERROR, and CRITICAL logging levels).
+  --log &lt;path&gt;                Path to a verbose appending log.
+  --proxy &lt;proxy&gt;             Specify a proxy in the form [user:passwd@]proxy.server:port.
+  --retries &lt;retries&gt;         Maximum number of retries each connection should attempt (default 5 times).
+  --timeout &lt;sec&gt;             Set the socket timeout (default 15 seconds).
+  --exists-action &lt;action&gt;    Default action when a path already exists: (s)witch, (i)gnore, (w)ipe, (b)ackup,
+                              (a)bort).
+  --trusted-host &lt;hostname&gt;   Mark this host as trusted, even though it does not have valid or any HTTPS.
+  --cert &lt;path&gt;               Path to alternate CA bundle.
+  --client-cert &lt;path&gt;        Path to SSL client certificate, a single file containing the private key and the
+                              certificate in PEM format.
+  --cache-dir &lt;dir&gt;           Store the cache data in &lt;dir&gt;.
+  --no-cache-dir              Disable the cache.
+  --disable-pip-version-check
+                              Don't periodically check PyPI to determine whether a new version of pip is available for
+                              download. Implied with --no-index.
+  --no-color                  Suppress colored output</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\WINDOWS\system32&gt; pip -h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,6 +337,28 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -268,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -276,6 +388,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -682,7 +798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66CCF9E2-41B0-463B-B6BB-E310D5CA10E2}">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -1482,4 +1598,56 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B228BA-F19F-4408-B87B-54F586B9E434}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="135.375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+    </row>
+    <row r="4" spans="1:1" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+    </row>
+    <row r="5" spans="1:1" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+    </row>
+    <row r="6" spans="1:1" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+    </row>
+    <row r="7" spans="1:1" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+    </row>
+    <row r="8" spans="1:1" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A8"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/venv/testcode/testfiles/文本.xlsx
+++ b/venv/testcode/testfiles/文本.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{68288489-6AFA-4D22-9357-1A8785E0B05A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BFBBF7D9-7386-48F0-8DB4-83399898C59A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BlueSkey" sheetId="1" r:id="rId1"/>
     <sheet name="data-txt" sheetId="2" r:id="rId2"/>
     <sheet name="pip -h" sheetId="3" r:id="rId3"/>
+    <sheet name="String.format()" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="67">
   <si>
     <t>i miss my blue blue sky</t>
   </si>
@@ -302,12 +303,382 @@
     <t>C:\WINDOWS\system32&gt; pip -h</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">format </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方法回顾：【</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>:&lt;&gt;&lt;&gt;&lt;&gt;,&lt;&gt;,&lt;&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"{:^10}\t{:^10}\t{:^10}\t{:^10}".format(u[0], u[1], u[2], u[3])</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>:</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>填充</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对齐</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宽度</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>精度</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类型</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>引导符号</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用于填充的
+单个字符</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">左对齐
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">右对齐
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>^</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>居中对齐</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>槽的设定
+输出宽度</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数字的千位
+分隔符适用
+于整数和浮
+点数</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>浮点数小数
+部分的精度
+或字符串的
+最大输出长度</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>整数类型：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">b,c,d,o,x,X
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>浮点数类型：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>e,E,f,%</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,16 +730,56 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -376,11 +787,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -388,10 +840,28 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -798,7 +1268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66CCF9E2-41B0-463B-B6BB-E310D5CA10E2}">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -1604,7 +2074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B228BA-F19F-4408-B87B-54F586B9E434}">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
@@ -1615,32 +2085,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
+      <c r="A3" s="6"/>
     </row>
     <row r="4" spans="1:1" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
+      <c r="A4" s="6"/>
     </row>
     <row r="5" spans="1:1" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
+      <c r="A5" s="6"/>
     </row>
     <row r="6" spans="1:1" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
+      <c r="A6" s="6"/>
     </row>
     <row r="7" spans="1:1" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
+      <c r="A7" s="6"/>
     </row>
     <row r="8" spans="1:1" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
+      <c r="A8" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1650,4 +2120,91 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49A30C38-1043-432E-A877-900CDA004025}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="74.375" style="1" customWidth="1"/>
+    <col min="2" max="8" width="13.625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="114" x14ac:dyDescent="0.2">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>